--- a/public/uploads/excel-formats/vendor-po.xlsx
+++ b/public/uploads/excel-formats/vendor-po.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecnofra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\headquater\public\uploads\excel-formats\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,41 +19,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Purchase Order No</t>
   </si>
   <si>
-    <t>Vendor Name</t>
-  </si>
-  <si>
     <t>Portal Code</t>
   </si>
   <si>
-    <t>SKU Code</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
     <t>MRP</t>
   </si>
   <si>
-    <t>Qty Requirement</t>
+    <t>HSN</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>PO Quantity</t>
+  </si>
+  <si>
+    <t>Sales Order No</t>
+  </si>
+  <si>
+    <t>Vendor Code</t>
+  </si>
+  <si>
+    <t>Vendor SKU Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -74,15 +83,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -360,43 +371,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="52" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
